--- a/DriveSummary.xlsx
+++ b/DriveSummary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2fd3bccd6dbaea2b/GitGud/DriveDashboardUiPath/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{16BB77BC-72C4-43FD-98A0-25CDEB97D854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0C2DE49-D818-4AB0-8855-9B6F27F64B3E}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{16BB77BC-72C4-43FD-98A0-25CDEB97D854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D6BF9B4-3A9D-487B-9116-890E3BD62EC3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B12B6E18-E294-4985-A977-422328ADD677}"/>
   </bookViews>
